--- a/incertitudes.xlsx
+++ b/incertitudes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurentemond/Desktop/Incertitudes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AF09FC-4DDB-524E-920E-FA1CDDD7C9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4E7528-E234-F34A-9010-6F16EDDB81BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{EB94C243-742A-5347-B42B-A80F4502D699}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EB94C243-742A-5347-B42B-A80F4502D699}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
   <si>
     <t>range</t>
   </si>
@@ -48,17 +48,108 @@
     <t>100m</t>
   </si>
   <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
     <t>1k</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>100M</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>500m</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>500u</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>50m</t>
+  </si>
+  <si>
+    <t>5k</t>
+  </si>
+  <si>
+    <t>50k</t>
+  </si>
+  <si>
+    <t>500k</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>50M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,13 +172,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,15 +499,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AE2CD5-EBA2-5945-A732-5CD51756433D}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,63 +517,1205 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="3">
+        <v>99.99</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9.99</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>99.99</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>99.99</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>999</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="D21" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9.99</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>99.99</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>100</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D26" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="D28" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3">
+        <v>9.99</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3">
+        <v>9.99</v>
+      </c>
+      <c r="D34" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B35" s="2">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3">
+        <v>99.99</v>
+      </c>
+      <c r="D36" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3">
+        <v>100</v>
+      </c>
+      <c r="D37" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="D40" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="2">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="2">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D42" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3">
+        <v>499.99</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
+        <v>500</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3">
+        <v>49.99</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3">
+        <v>50</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3">
+        <v>499.99</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>500</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>9999.99</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="2">
+        <v>8</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="2">
+        <v>8</v>
+      </c>
+      <c r="C56" s="3">
+        <v>499</v>
+      </c>
+      <c r="D56" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2">
+        <v>8</v>
+      </c>
+      <c r="C57" s="3">
+        <v>500</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="2">
+        <v>8</v>
+      </c>
+      <c r="C58" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D58" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="2">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="2">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="D60" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="2">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="2">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3">
+        <v>49.99</v>
+      </c>
+      <c r="D62" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="2">
+        <v>6</v>
+      </c>
+      <c r="C63" s="3">
+        <v>50</v>
+      </c>
+      <c r="D63" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="2">
+        <v>6</v>
+      </c>
+      <c r="C64" s="3">
+        <v>499.99</v>
+      </c>
+      <c r="D64" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="2">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3">
+        <v>500</v>
+      </c>
+      <c r="D65" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="2">
+        <v>6</v>
+      </c>
+      <c r="C66" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D66" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="2">
+        <v>7</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="2">
+        <v>7</v>
+      </c>
+      <c r="C68" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="D68" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="2">
+        <v>7</v>
+      </c>
+      <c r="C69" s="3">
+        <v>5</v>
+      </c>
+      <c r="D69" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2">
+        <v>7</v>
+      </c>
+      <c r="C70" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D70" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="2">
+        <v>3</v>
+      </c>
+      <c r="C72" s="3">
+        <v>499.99</v>
+      </c>
+      <c r="D72" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="2">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3">
+        <v>500</v>
+      </c>
+      <c r="D73" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="2">
+        <v>3</v>
+      </c>
+      <c r="C74" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D74" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="C75" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D75" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C76" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="D76" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="2">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
+      <c r="C77" s="3">
+        <v>5</v>
+      </c>
+      <c r="D77" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="2">
+        <v>4</v>
+      </c>
+      <c r="C78" s="3">
+        <v>49.99</v>
+      </c>
+      <c r="D78" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="2">
+        <v>4</v>
+      </c>
+      <c r="C79" s="3">
+        <v>50</v>
+      </c>
+      <c r="D79" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="2">
+        <v>4</v>
+      </c>
+      <c r="C80" s="3">
+        <v>499.99</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4</v>
+      </c>
+      <c r="C81" s="3">
+        <v>500</v>
+      </c>
+      <c r="D81" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="2">
+        <v>4</v>
+      </c>
+      <c r="C82" s="6">
+        <v>999.99</v>
+      </c>
+      <c r="D82" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="2">
+        <v>5</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D83" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="2">
+        <v>5</v>
+      </c>
+      <c r="C84" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="D84" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="2">
+        <v>5</v>
+      </c>
+      <c r="C85" s="3">
+        <v>5</v>
+      </c>
+      <c r="D85" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="2">
+        <v>5</v>
+      </c>
+      <c r="C86" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D86" s="2">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A7:A14" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/incertitudes.xlsx
+++ b/incertitudes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurentemond/Desktop/Incertitudes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4E7528-E234-F34A-9010-6F16EDDB81BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C195CBDC-CFD8-E749-98B9-21468C22F92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EB94C243-742A-5347-B42B-A80F4502D699}"/>
+    <workbookView xWindow="1320" yWindow="1860" windowWidth="28800" windowHeight="15760" xr2:uid="{EB94C243-742A-5347-B42B-A80F4502D699}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="32">
   <si>
     <t>range</t>
   </si>
@@ -63,9 +63,6 @@
     <t>1000</t>
   </si>
   <si>
-    <t>err</t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
@@ -124,6 +121,15 @@
   </si>
   <si>
     <t>50M</t>
+  </si>
+  <si>
+    <t>err_d</t>
+  </si>
+  <si>
+    <t>err_m</t>
+  </si>
+  <si>
+    <t>err_</t>
   </si>
 </sst>
 </file>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AE2CD5-EBA2-5945-A732-5CD51756433D}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,7 +571,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -579,7 +585,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -593,13 +599,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
         <v>6.5</v>
@@ -607,7 +613,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -621,13 +627,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D9" s="2">
         <v>6.5</v>
@@ -635,13 +641,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="D10" s="2">
         <v>6.5</v>
@@ -649,13 +655,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
         <v>6.5</v>
@@ -663,13 +669,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>99.99</v>
+        <v>9.99</v>
       </c>
       <c r="D12" s="2">
         <v>6.5</v>
@@ -677,13 +683,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>6.5</v>
@@ -691,27 +697,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>99.99</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2">
         <v>6.5</v>
@@ -719,27 +725,27 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>99.99</v>
+        <v>1000</v>
       </c>
       <c r="D16" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>9</v>
+      <c r="A17" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
         <v>6.5</v>
@@ -747,13 +753,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>999</v>
+        <v>99.99</v>
       </c>
       <c r="D18" s="2">
         <v>6.5</v>
@@ -761,13 +767,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2">
         <v>6.5</v>
@@ -775,13 +781,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>0.99</v>
+        <v>999</v>
       </c>
       <c r="D20" s="2">
         <v>6.5</v>
@@ -789,13 +795,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
         <v>6.5</v>
@@ -803,69 +809,69 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
       </c>
       <c r="C22" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
         <v>9.99</v>
-      </c>
-      <c r="D22" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="2">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3">
-        <v>99.99</v>
-      </c>
-      <c r="D24" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>100</v>
-      </c>
-      <c r="D25" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>999.99</v>
       </c>
       <c r="D26" s="2">
         <v>6.5</v>
@@ -873,13 +879,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2">
         <v>6.5</v>
@@ -887,27 +893,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>0.99</v>
+        <v>99.99</v>
       </c>
       <c r="D28" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>14</v>
+      <c r="A29" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D29" s="2">
         <v>6.5</v>
@@ -915,41 +921,41 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="3">
-        <v>9.99</v>
+        <v>999.99</v>
       </c>
       <c r="D30" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>15</v>
+      <c r="A31" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>5</v>
       </c>
       <c r="C31" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>15</v>
+      <c r="A32" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>5</v>
       </c>
       <c r="C32" s="3">
-        <v>999.99</v>
+        <v>0.99</v>
       </c>
       <c r="D32" s="2">
         <v>6.5</v>
@@ -957,13 +963,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B33" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D33" s="2">
         <v>6.5</v>
@@ -971,13 +977,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="D34" s="2">
         <v>6.5</v>
@@ -985,13 +991,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B35" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2">
         <v>6.5</v>
@@ -999,13 +1005,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="3">
-        <v>99.99</v>
+        <v>9.99</v>
       </c>
       <c r="D36" s="2">
         <v>6.5</v>
@@ -1013,13 +1019,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B37" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2">
         <v>6.5</v>
@@ -1027,10 +1033,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="3">
         <v>999.99</v>
@@ -1040,56 +1046,56 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>5</v>
+      <c r="A39" t="s">
+        <v>15</v>
       </c>
       <c r="B39" s="2">
         <v>7</v>
       </c>
       <c r="C39" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>5</v>
+      <c r="A40" t="s">
+        <v>15</v>
       </c>
       <c r="B40" s="2">
         <v>7</v>
       </c>
       <c r="C40" s="3">
-        <v>0.99</v>
+        <v>9.99</v>
       </c>
       <c r="D40" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>17</v>
+      <c r="A41" t="s">
+        <v>3</v>
       </c>
       <c r="B41" s="2">
         <v>7</v>
       </c>
       <c r="C41" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D41" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>17</v>
+      <c r="A42" t="s">
+        <v>3</v>
       </c>
       <c r="B42" s="2">
         <v>7</v>
       </c>
       <c r="C42" s="3">
-        <v>999.99</v>
+        <v>99.99</v>
       </c>
       <c r="D42" s="2">
         <v>6.5</v>
@@ -1097,136 +1103,136 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B43" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D43" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B44" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C44" s="3">
-        <v>499.99</v>
+        <v>999.99</v>
       </c>
       <c r="D44" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>9</v>
+      <c r="A45" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B45" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C45" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>9</v>
+      <c r="A46" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B46" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C46" s="3">
-        <v>1000</v>
+        <v>0.99</v>
       </c>
       <c r="D46" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B47" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D47" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B48" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="D48" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B49" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C49" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B50" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3">
-        <v>49.99</v>
+        <v>999.99</v>
       </c>
       <c r="D50" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>21</v>
+      <c r="A51" t="s">
+        <v>17</v>
       </c>
       <c r="B51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2">
         <v>4.5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>21</v>
+      <c r="A52" t="s">
+        <v>17</v>
       </c>
       <c r="B52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="3">
         <v>499.99</v>
@@ -1236,11 +1242,11 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>7</v>
+      <c r="A53" t="s">
+        <v>29</v>
       </c>
       <c r="B53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="3">
         <v>500</v>
@@ -1250,14 +1256,14 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>7</v>
+      <c r="A54" t="s">
+        <v>29</v>
       </c>
       <c r="B54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="3">
-        <v>9999.99</v>
+        <v>1000</v>
       </c>
       <c r="D54" s="2">
         <v>4.5</v>
@@ -1265,10 +1271,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B55" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
@@ -1279,125 +1285,125 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B56" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C56" s="3">
-        <v>499</v>
+        <v>0.49</v>
       </c>
       <c r="D56" s="2">
         <v>4.5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>9</v>
+      <c r="A57" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B57" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C57" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="D58" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3">
+        <v>49.99</v>
+      </c>
+      <c r="D60" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3">
+        <v>50</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3">
+        <v>499.99</v>
+      </c>
+      <c r="D62" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3">
         <v>500</v>
       </c>
-      <c r="D57" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="2">
-        <v>8</v>
-      </c>
-      <c r="C58" s="3">
-        <v>999.99</v>
-      </c>
-      <c r="D58" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="2">
-        <v>6</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D59" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="2">
-        <v>6</v>
-      </c>
-      <c r="C60" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="D60" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="2">
-        <v>6</v>
-      </c>
-      <c r="C61" s="3">
-        <v>5</v>
-      </c>
-      <c r="D61" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="2">
-        <v>6</v>
-      </c>
-      <c r="C62" s="3">
-        <v>49.99</v>
-      </c>
-      <c r="D62" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="2">
-        <v>6</v>
-      </c>
-      <c r="C63" s="3">
-        <v>50</v>
-      </c>
       <c r="D63" s="2">
         <v>4.5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>18</v>
+      <c r="A64" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B64" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C64" s="3">
-        <v>499.99</v>
+        <v>9999.99</v>
       </c>
       <c r="D64" s="2">
         <v>4.5</v>
@@ -1405,13 +1411,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B65" s="2">
         <v>6</v>
       </c>
       <c r="C65" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2">
         <v>4.5</v>
@@ -1419,97 +1425,97 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B66" s="2">
         <v>6</v>
       </c>
       <c r="C66" s="3">
+        <v>499</v>
+      </c>
+      <c r="D66" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="2">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3">
+        <v>500</v>
+      </c>
+      <c r="D67" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" s="2">
+        <v>6</v>
+      </c>
+      <c r="C68" s="3">
         <v>999.99</v>
       </c>
-      <c r="D66" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="2">
-        <v>7</v>
-      </c>
-      <c r="C67" s="3">
+      <c r="D68" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="2">
+        <v>7</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="2">
+        <v>7</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D70" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="2">
+        <v>7</v>
+      </c>
+      <c r="C71" s="3">
         <v>0.5</v>
       </c>
-      <c r="D67" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="2">
-        <v>7</v>
-      </c>
-      <c r="C68" s="3">
+      <c r="D71" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="2">
+        <v>7</v>
+      </c>
+      <c r="C72" s="3">
         <v>4.99</v>
-      </c>
-      <c r="D68" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="2">
-        <v>7</v>
-      </c>
-      <c r="C69" s="3">
-        <v>5</v>
-      </c>
-      <c r="D69" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" s="2">
-        <v>7</v>
-      </c>
-      <c r="C70" s="3">
-        <v>999.99</v>
-      </c>
-      <c r="D70" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="2">
-        <v>3</v>
-      </c>
-      <c r="C71" s="3">
-        <v>0</v>
-      </c>
-      <c r="D71" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" s="2">
-        <v>3</v>
-      </c>
-      <c r="C72" s="3">
-        <v>499.99</v>
       </c>
       <c r="D72" s="2">
         <v>4.5</v>
@@ -1517,13 +1523,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B73" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C73" s="3">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="D73" s="2">
         <v>4.5</v>
@@ -1531,13 +1537,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B74" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C74" s="3">
-        <v>999.99</v>
+        <v>49.99</v>
       </c>
       <c r="D74" s="2">
         <v>4.5</v>
@@ -1545,13 +1551,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B75" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C75" s="3">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="D75" s="2">
         <v>4.5</v>
@@ -1559,13 +1565,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B76" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C76" s="3">
-        <v>4.99</v>
+        <v>499.99</v>
       </c>
       <c r="D76" s="2">
         <v>4.5</v>
@@ -1573,13 +1579,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B77" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C77" s="3">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="D77" s="2">
         <v>4.5</v>
@@ -1587,13 +1593,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B78" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C78" s="3">
-        <v>49.99</v>
+        <v>999.99</v>
       </c>
       <c r="D78" s="2">
         <v>4.5</v>
@@ -1601,13 +1607,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B79" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C79" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D79" s="2">
         <v>4.5</v>
@@ -1615,99 +1621,351 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="2">
+        <v>8</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="2">
+        <v>8</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D81" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="2">
+        <v>8</v>
+      </c>
+      <c r="C82" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="D82" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="2">
+        <v>8</v>
+      </c>
+      <c r="C83" s="3">
+        <v>5</v>
+      </c>
+      <c r="D83" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="2">
+        <v>8</v>
+      </c>
+      <c r="C84" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D84" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="2">
+        <v>3</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="2">
+        <v>3</v>
+      </c>
+      <c r="C86" s="3">
+        <v>499.99</v>
+      </c>
+      <c r="D86" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="2">
+        <v>3</v>
+      </c>
+      <c r="C87" s="3">
+        <v>500</v>
+      </c>
+      <c r="D87" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="2">
+        <v>3</v>
+      </c>
+      <c r="C88" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D88" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="2">
+        <v>4</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="2">
+        <v>4</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D90" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="2">
+        <v>4</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D91" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="2">
+        <v>4</v>
+      </c>
+      <c r="C92" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="D92" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="2">
+        <v>4</v>
+      </c>
+      <c r="C93" s="3">
+        <v>5</v>
+      </c>
+      <c r="D93" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="2">
+        <v>4</v>
+      </c>
+      <c r="C94" s="3">
+        <v>49.99</v>
+      </c>
+      <c r="D94" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="2">
+        <v>4</v>
+      </c>
+      <c r="C95" s="3">
+        <v>50</v>
+      </c>
+      <c r="D95" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="2">
+        <v>4</v>
+      </c>
+      <c r="C96" s="3">
+        <v>499.99</v>
+      </c>
+      <c r="D96" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="2">
+        <v>4</v>
+      </c>
+      <c r="C97" s="3">
+        <v>500</v>
+      </c>
+      <c r="D97" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="2">
+        <v>4</v>
+      </c>
+      <c r="C98" s="6">
+        <v>999.99</v>
+      </c>
+      <c r="D98" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" s="2">
+        <v>5</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" s="2">
+        <v>5</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D100" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>27</v>
       </c>
-      <c r="B80" s="2">
-        <v>4</v>
-      </c>
-      <c r="C80" s="3">
-        <v>499.99</v>
-      </c>
-      <c r="D80" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" s="2">
-        <v>4</v>
-      </c>
-      <c r="C81" s="3">
-        <v>500</v>
-      </c>
-      <c r="D81" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="2">
-        <v>4</v>
-      </c>
-      <c r="C82" s="6">
+      <c r="B101" s="2">
+        <v>5</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D101" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" s="2">
+        <v>5</v>
+      </c>
+      <c r="C102" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="D102" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="2">
+        <v>5</v>
+      </c>
+      <c r="C103" s="3">
+        <v>5</v>
+      </c>
+      <c r="D103" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" s="2">
+        <v>5</v>
+      </c>
+      <c r="C104" s="3">
         <v>999.99</v>
       </c>
-      <c r="D82" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>28</v>
-      </c>
-      <c r="B83" s="2">
-        <v>5</v>
-      </c>
-      <c r="C83" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D83" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>28</v>
-      </c>
-      <c r="B84" s="2">
-        <v>5</v>
-      </c>
-      <c r="C84" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="D84" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="2">
-        <v>5</v>
-      </c>
-      <c r="C85" s="3">
-        <v>5</v>
-      </c>
-      <c r="D85" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>29</v>
-      </c>
-      <c r="B86" s="2">
-        <v>5</v>
-      </c>
-      <c r="C86" s="3">
-        <v>999.99</v>
-      </c>
-      <c r="D86" s="2">
+      <c r="D104" s="2">
         <v>4.5</v>
       </c>
     </row>
@@ -1715,7 +1973,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A7:A14" numberStoredAsText="1"/>
+    <ignoredError sqref="A9:A16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/incertitudes.xlsx
+++ b/incertitudes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurentemond/Desktop/Incertitudes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C195CBDC-CFD8-E749-98B9-21468C22F92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4248F597-BED7-164C-9912-6C2A89336306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1860" windowWidth="28800" windowHeight="15760" xr2:uid="{EB94C243-742A-5347-B42B-A80F4502D699}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{EB94C243-742A-5347-B42B-A80F4502D699}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
   <si>
     <t>range</t>
   </si>
@@ -129,7 +129,10 @@
     <t>err_m</t>
   </si>
   <si>
-    <t>err_</t>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -180,7 +183,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -192,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -209,9 +212,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Bureau">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -249,7 +252,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Bureau">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -355,7 +358,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Bureau">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AE2CD5-EBA2-5945-A732-5CD51756433D}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
         <v>6.5</v>
@@ -563,35 +566,35 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>99.99</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
+      <c r="A5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>29</v>
+      <c r="A6" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>999</v>
+        <v>99.99</v>
       </c>
       <c r="D6" s="2">
         <v>6.5</v>
@@ -599,13 +602,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2">
         <v>6.5</v>
@@ -613,13 +616,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>0.99</v>
+        <v>500</v>
       </c>
       <c r="D8" s="2">
         <v>6.5</v>
@@ -627,13 +630,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="D9" s="2">
         <v>6.5</v>
@@ -641,13 +644,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>0.99</v>
+        <v>1500</v>
       </c>
       <c r="D10" s="2">
         <v>6.5</v>
@@ -655,13 +658,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
         <v>6.5</v>
@@ -669,13 +672,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>9.99</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D12" s="2">
         <v>6.5</v>
@@ -683,13 +686,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="D13" s="2">
         <v>6.5</v>
@@ -697,13 +700,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>99.99</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D14" s="2">
         <v>6.5</v>
@@ -711,13 +714,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="D15" s="2">
         <v>6.5</v>
@@ -725,27 +728,27 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>1000</v>
+        <v>0.25</v>
       </c>
       <c r="D16" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>7</v>
+      <c r="A17" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D17" s="2">
         <v>6.5</v>
@@ -753,13 +756,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>99.99</v>
+        <v>0.99</v>
       </c>
       <c r="D18" s="2">
         <v>6.5</v>
@@ -767,13 +770,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
         <v>6.5</v>
@@ -781,13 +784,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>999</v>
+        <v>1.35</v>
       </c>
       <c r="D20" s="2">
         <v>6.5</v>
@@ -795,13 +798,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>8.56</v>
       </c>
       <c r="D21" s="2">
         <v>6.5</v>
@@ -809,13 +812,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>0.99</v>
+        <v>9.99</v>
       </c>
       <c r="D22" s="2">
         <v>6.5</v>
@@ -823,13 +826,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2">
         <v>6.5</v>
@@ -837,13 +840,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>0.99</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2">
         <v>6.5</v>
@@ -851,13 +854,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2">
         <v>6.5</v>
@@ -865,83 +868,83 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>9.99</v>
+        <v>99.99</v>
       </c>
       <c r="D26" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>11</v>
+      <c r="A27" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B27" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D27" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>11</v>
+      <c r="A28" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B28" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3">
-        <v>99.99</v>
+        <v>1000</v>
       </c>
       <c r="D28" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
+      <c r="A29" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B30" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3">
-        <v>999.99</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>30</v>
+      <c r="A31" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B31" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2">
         <v>6.5</v>
@@ -949,181 +952,181 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>99.99</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>100</v>
+      </c>
+      <c r="D33" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>125</v>
+      </c>
+      <c r="D34" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>800</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>999</v>
+      </c>
+      <c r="D36" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
-        <v>5</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D43" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3">
         <v>0.99</v>
-      </c>
-      <c r="D32" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="2">
-        <v>5</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="2">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="D34" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="2">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="2">
-        <v>5</v>
-      </c>
-      <c r="C36" s="3">
-        <v>9.99</v>
-      </c>
-      <c r="D36" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="2">
-        <v>5</v>
-      </c>
-      <c r="C37" s="3">
-        <v>10</v>
-      </c>
-      <c r="D37" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="2">
-        <v>5</v>
-      </c>
-      <c r="C38" s="3">
-        <v>999.99</v>
-      </c>
-      <c r="D38" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="2">
-        <v>7</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="2">
-        <v>7</v>
-      </c>
-      <c r="C40" s="3">
-        <v>9.99</v>
-      </c>
-      <c r="D40" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="2">
-        <v>7</v>
-      </c>
-      <c r="C41" s="3">
-        <v>10</v>
-      </c>
-      <c r="D41" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="2">
-        <v>7</v>
-      </c>
-      <c r="C42" s="3">
-        <v>99.99</v>
-      </c>
-      <c r="D42" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="2">
-        <v>7</v>
-      </c>
-      <c r="C43" s="3">
-        <v>100</v>
-      </c>
-      <c r="D43" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="2">
-        <v>7</v>
-      </c>
-      <c r="C44" s="3">
-        <v>999.99</v>
       </c>
       <c r="D44" s="2">
         <v>6.5</v>
@@ -1131,13 +1134,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2">
         <v>6.5</v>
@@ -1145,69 +1148,69 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3">
         <v>8</v>
       </c>
-      <c r="C46" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="D46" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="2">
-        <v>8</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0.1</v>
-      </c>
       <c r="D47" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>5</v>
+      <c r="A48" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B48" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3">
-        <v>0.99</v>
+        <v>9.99</v>
       </c>
       <c r="D48" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>16</v>
+      <c r="A49" t="s">
+        <v>11</v>
       </c>
       <c r="B49" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C49" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D49" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>16</v>
+      <c r="A50" t="s">
+        <v>11</v>
       </c>
       <c r="B50" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C50" s="3">
-        <v>999.99</v>
+        <v>67</v>
       </c>
       <c r="D50" s="2">
         <v>6.5</v>
@@ -1215,671 +1218,671 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B51" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C51" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D51" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B52" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52" s="3">
-        <v>499.99</v>
+        <v>99.99</v>
       </c>
       <c r="D52" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D53" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C54" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D54" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>30</v>
+      <c r="A55" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B55" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" s="3">
-        <v>0</v>
+        <v>879</v>
       </c>
       <c r="D55" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D56" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="2">
-        <v>2</v>
-      </c>
-      <c r="C56" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="D56" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="B57" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D58" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="2">
+        <v>5</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="D59" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="2">
+        <v>5</v>
+      </c>
+      <c r="C60" s="3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5</v>
+      </c>
+      <c r="C62" s="3">
         <v>0.5</v>
       </c>
-      <c r="D57" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="2">
-        <v>2</v>
-      </c>
-      <c r="C58" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="D58" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="2">
-        <v>2</v>
-      </c>
-      <c r="C59" s="3">
-        <v>5</v>
-      </c>
-      <c r="D59" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="2">
-        <v>2</v>
-      </c>
-      <c r="C60" s="3">
-        <v>49.99</v>
-      </c>
-      <c r="D60" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="2">
-        <v>2</v>
-      </c>
-      <c r="C61" s="3">
-        <v>50</v>
-      </c>
-      <c r="D61" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="2">
-        <v>2</v>
-      </c>
-      <c r="C62" s="3">
-        <v>499.99</v>
-      </c>
       <c r="D62" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>7</v>
+      <c r="A63" t="s">
+        <v>12</v>
       </c>
       <c r="B63" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C63" s="3">
-        <v>500</v>
+        <v>0.8</v>
       </c>
       <c r="D63" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>7</v>
+      <c r="A64" t="s">
+        <v>12</v>
       </c>
       <c r="B64" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C64" s="3">
-        <v>9999.99</v>
+        <v>0.99</v>
       </c>
       <c r="D64" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B65" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B66" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" s="3">
-        <v>499</v>
+        <v>4</v>
       </c>
       <c r="D66" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B67" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" s="3">
-        <v>500</v>
+        <v>8</v>
       </c>
       <c r="D67" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B68" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" s="3">
-        <v>999.99</v>
+        <v>9.99</v>
       </c>
       <c r="D68" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B69" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D69" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B70" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" s="3">
-        <v>0.49</v>
+        <v>180</v>
       </c>
       <c r="D70" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B71" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" s="3">
-        <v>0.5</v>
+        <v>700</v>
       </c>
       <c r="D71" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B72" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" s="3">
-        <v>4.99</v>
+        <v>999.99</v>
       </c>
       <c r="D72" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B73" s="2">
         <v>7</v>
       </c>
       <c r="C73" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D73" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B74" s="2">
         <v>7</v>
       </c>
       <c r="C74" s="3">
-        <v>49.99</v>
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="D74" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B75" s="2">
         <v>7</v>
       </c>
       <c r="C75" s="3">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="D75" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B76" s="2">
         <v>7</v>
       </c>
       <c r="C76" s="3">
-        <v>499.99</v>
+        <v>7</v>
       </c>
       <c r="D76" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B77" s="2">
         <v>7</v>
       </c>
       <c r="C77" s="3">
-        <v>500</v>
+        <v>9.99</v>
       </c>
       <c r="D77" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B78" s="2">
         <v>7</v>
       </c>
       <c r="C78" s="3">
-        <v>999.99</v>
+        <v>10</v>
       </c>
       <c r="D78" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B79" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D79" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B80" s="2">
+        <v>7</v>
+      </c>
+      <c r="C80" s="3">
+        <v>79</v>
+      </c>
+      <c r="D80" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="2">
+        <v>7</v>
+      </c>
+      <c r="C81" s="3">
+        <v>99.99</v>
+      </c>
+      <c r="D81" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" s="2">
+        <v>7</v>
+      </c>
+      <c r="C82" s="3">
+        <v>100</v>
+      </c>
+      <c r="D82" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="2">
+        <v>7</v>
+      </c>
+      <c r="C83" s="3">
+        <v>600</v>
+      </c>
+      <c r="D83" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="2">
+        <v>7</v>
+      </c>
+      <c r="C84" s="3">
+        <v>800</v>
+      </c>
+      <c r="D84" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="2">
+        <v>7</v>
+      </c>
+      <c r="C85" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D85" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" s="2">
         <v>8</v>
       </c>
-      <c r="C80" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="D80" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" s="2">
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="2">
         <v>8</v>
       </c>
-      <c r="C81" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D81" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="2">
+      <c r="C87" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D87" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="2">
         <v>8</v>
       </c>
-      <c r="C82" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="D82" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="2">
+      <c r="C88" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="D88" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="2">
         <v>8</v>
       </c>
-      <c r="C83" s="3">
-        <v>5</v>
-      </c>
-      <c r="D83" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="2">
+      <c r="C89" s="3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D89" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="2">
         <v>8</v>
       </c>
-      <c r="C84" s="3">
-        <v>999.99</v>
-      </c>
-      <c r="D84" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85" s="2">
-        <v>3</v>
-      </c>
-      <c r="C85" s="3">
-        <v>0</v>
-      </c>
-      <c r="D85" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B86" s="2">
-        <v>3</v>
-      </c>
-      <c r="C86" s="3">
-        <v>499.99</v>
-      </c>
-      <c r="D86" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" s="2">
-        <v>3</v>
-      </c>
-      <c r="C87" s="3">
-        <v>500</v>
-      </c>
-      <c r="D87" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" s="2">
-        <v>3</v>
-      </c>
-      <c r="C88" s="3">
-        <v>999.99</v>
-      </c>
-      <c r="D88" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>30</v>
-      </c>
-      <c r="B89" s="2">
-        <v>4</v>
-      </c>
-      <c r="C89" s="3">
-        <v>0</v>
-      </c>
-      <c r="D89" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>30</v>
-      </c>
-      <c r="B90" s="2">
-        <v>4</v>
-      </c>
       <c r="C90" s="3">
-        <v>0.49</v>
+        <v>0.1</v>
       </c>
       <c r="D90" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>24</v>
+      <c r="A91" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B91" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C91" s="3">
         <v>0.5</v>
       </c>
       <c r="D91" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>24</v>
+      <c r="A92" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B92" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C92" s="3">
-        <v>4.99</v>
+        <v>0.8</v>
       </c>
       <c r="D92" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>25</v>
+      <c r="A93" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B93" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C93" s="3">
-        <v>5</v>
+        <v>0.99</v>
       </c>
       <c r="D93" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>25</v>
+      <c r="A94" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B94" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C94" s="3">
-        <v>49.99</v>
+        <v>1</v>
       </c>
       <c r="D94" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>26</v>
+      <c r="A95" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B95" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C95" s="3">
-        <v>50</v>
+        <v>489</v>
       </c>
       <c r="D95" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>26</v>
+      <c r="A96" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B96" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C96" s="3">
-        <v>499.99</v>
+        <v>700</v>
       </c>
       <c r="D96" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>29</v>
+      <c r="A97" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B97" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C97" s="3">
-        <v>500</v>
+        <v>999.99</v>
       </c>
       <c r="D97" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B98" s="2">
-        <v>4</v>
-      </c>
-      <c r="C98" s="6">
-        <v>999.99</v>
+        <v>1</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0</v>
       </c>
       <c r="D98" s="2">
         <v>4.5</v>
@@ -1887,13 +1890,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B99" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C99" s="3">
-        <v>0</v>
+        <v>499.99</v>
       </c>
       <c r="D99" s="2">
         <v>4.5</v>
@@ -1901,13 +1904,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B100" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C100" s="3">
-        <v>0.49</v>
+        <v>500</v>
       </c>
       <c r="D100" s="2">
         <v>4.5</v>
@@ -1915,13 +1918,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B101" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C101" s="3">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="D101" s="2">
         <v>4.5</v>
@@ -1929,13 +1932,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B102" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C102" s="3">
-        <v>4.99</v>
+        <v>0</v>
       </c>
       <c r="D102" s="2">
         <v>4.5</v>
@@ -1943,29 +1946,687 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D103" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D104" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2</v>
+      </c>
+      <c r="C105" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="D105" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2</v>
+      </c>
+      <c r="C106" s="3">
+        <v>5</v>
+      </c>
+      <c r="D106" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2</v>
+      </c>
+      <c r="C107" s="3">
+        <v>49.99</v>
+      </c>
+      <c r="D107" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2</v>
+      </c>
+      <c r="C108" s="3">
+        <v>50</v>
+      </c>
+      <c r="D108" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2</v>
+      </c>
+      <c r="C109" s="3">
+        <v>499.99</v>
+      </c>
+      <c r="D109" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2</v>
+      </c>
+      <c r="C110" s="3">
+        <v>500</v>
+      </c>
+      <c r="D110" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2</v>
+      </c>
+      <c r="C111" s="3">
+        <v>9999.99</v>
+      </c>
+      <c r="D111" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" s="2">
+        <v>6</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0</v>
+      </c>
+      <c r="D112" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="2">
+        <v>6</v>
+      </c>
+      <c r="C113" s="3">
+        <v>499</v>
+      </c>
+      <c r="D113" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" s="2">
+        <v>6</v>
+      </c>
+      <c r="C114" s="3">
+        <v>500</v>
+      </c>
+      <c r="D114" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115" s="2">
+        <v>6</v>
+      </c>
+      <c r="C115" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D115" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" s="2">
+        <v>7</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" s="2">
+        <v>7</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D117" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" s="2">
+        <v>7</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D118" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>22</v>
+      </c>
+      <c r="B119" s="2">
+        <v>7</v>
+      </c>
+      <c r="C119" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="D119" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="2">
+        <v>7</v>
+      </c>
+      <c r="C120" s="3">
+        <v>5</v>
+      </c>
+      <c r="D120" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="2">
+        <v>7</v>
+      </c>
+      <c r="C121" s="3">
+        <v>49.99</v>
+      </c>
+      <c r="D121" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" s="2">
+        <v>7</v>
+      </c>
+      <c r="C122" s="3">
+        <v>50</v>
+      </c>
+      <c r="D122" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" s="2">
+        <v>7</v>
+      </c>
+      <c r="C123" s="3">
+        <v>499.99</v>
+      </c>
+      <c r="D123" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>29</v>
+      </c>
+      <c r="B124" s="2">
+        <v>7</v>
+      </c>
+      <c r="C124" s="3">
+        <v>500</v>
+      </c>
+      <c r="D124" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>29</v>
+      </c>
+      <c r="B125" s="2">
+        <v>7</v>
+      </c>
+      <c r="C125" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D125" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126" s="2">
+        <v>8</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0</v>
+      </c>
+      <c r="D126" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="2">
+        <v>8</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D127" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128" s="2">
+        <v>8</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D128" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" s="2">
+        <v>8</v>
+      </c>
+      <c r="C129" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="D129" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="2">
+        <v>8</v>
+      </c>
+      <c r="C130" s="3">
+        <v>5</v>
+      </c>
+      <c r="D130" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="2">
+        <v>8</v>
+      </c>
+      <c r="C131" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D131" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" s="2">
+        <v>3</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" s="2">
+        <v>3</v>
+      </c>
+      <c r="C133" s="3">
+        <v>499.99</v>
+      </c>
+      <c r="D133" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>29</v>
+      </c>
+      <c r="B134" s="2">
+        <v>3</v>
+      </c>
+      <c r="C134" s="3">
+        <v>500</v>
+      </c>
+      <c r="D134" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>29</v>
+      </c>
+      <c r="B135" s="2">
+        <v>3</v>
+      </c>
+      <c r="C135" s="3">
+        <v>999.99</v>
+      </c>
+      <c r="D135" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" s="2">
+        <v>4</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137" s="2">
+        <v>4</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D137" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" s="2">
+        <v>4</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D138" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" s="2">
+        <v>4</v>
+      </c>
+      <c r="C139" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="D139" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>25</v>
+      </c>
+      <c r="B140" s="2">
+        <v>4</v>
+      </c>
+      <c r="C140" s="3">
+        <v>5</v>
+      </c>
+      <c r="D140" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>25</v>
+      </c>
+      <c r="B141" s="2">
+        <v>4</v>
+      </c>
+      <c r="C141" s="3">
+        <v>49.99</v>
+      </c>
+      <c r="D141" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" s="2">
+        <v>4</v>
+      </c>
+      <c r="C142" s="3">
+        <v>50</v>
+      </c>
+      <c r="D142" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="2">
+        <v>4</v>
+      </c>
+      <c r="C143" s="3">
+        <v>499.99</v>
+      </c>
+      <c r="D143" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>29</v>
+      </c>
+      <c r="B144" s="2">
+        <v>4</v>
+      </c>
+      <c r="C144" s="3">
+        <v>500</v>
+      </c>
+      <c r="D144" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>29</v>
+      </c>
+      <c r="B145" s="2">
+        <v>4</v>
+      </c>
+      <c r="C145" s="6">
+        <v>999.99</v>
+      </c>
+      <c r="D145" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>30</v>
+      </c>
+      <c r="B146" s="2">
+        <v>5</v>
+      </c>
+      <c r="C146" s="3">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>30</v>
+      </c>
+      <c r="B147" s="2">
+        <v>5</v>
+      </c>
+      <c r="C147" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D147" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>27</v>
+      </c>
+      <c r="B148" s="2">
+        <v>5</v>
+      </c>
+      <c r="C148" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D148" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149" s="2">
+        <v>5</v>
+      </c>
+      <c r="C149" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="D149" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>28</v>
       </c>
-      <c r="B103" s="2">
-        <v>5</v>
-      </c>
-      <c r="C103" s="3">
-        <v>5</v>
-      </c>
-      <c r="D103" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="B150" s="2">
+        <v>5</v>
+      </c>
+      <c r="C150" s="3">
+        <v>5</v>
+      </c>
+      <c r="D150" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>28</v>
       </c>
-      <c r="B104" s="2">
-        <v>5</v>
-      </c>
-      <c r="C104" s="3">
+      <c r="B151" s="2">
+        <v>5</v>
+      </c>
+      <c r="C151" s="3">
         <v>999.99</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D151" s="2">
         <v>4.5</v>
       </c>
     </row>
@@ -1973,7 +2634,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A9:A16" numberStoredAsText="1"/>
+    <ignoredError sqref="A26:A28 A15 A18:A19 A22:A23" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/incertitudes.xlsx
+++ b/incertitudes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurentemond/Desktop/Incertitudes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F26AD64-FE8C-4D40-9D5E-CBDCC4B23021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DAD148-2481-0349-9456-E9D5BBEAB683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{EB94C243-742A-5347-B42B-A80F4502D699}"/>
+    <workbookView xWindow="-31800" yWindow="-1200" windowWidth="28800" windowHeight="15760" xr2:uid="{EB94C243-742A-5347-B42B-A80F4502D699}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
   <si>
     <t>range</t>
   </si>
@@ -127,12 +127,6 @@
   </si>
   <si>
     <t>err_m</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
   </si>
 </sst>
 </file>
@@ -508,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AE2CD5-EBA2-5945-A732-5CD51756433D}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +722,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
         <v>6.5</v>
@@ -742,7 +736,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
         <v>6.5</v>
@@ -1213,68 +1207,68 @@
         <v>7</v>
       </c>
       <c r="D50" s="3">
-        <v>9.99</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C51" s="2">
+        <v>7</v>
+      </c>
+      <c r="D51" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C52" s="2">
+        <v>7</v>
+      </c>
+      <c r="D52" s="3">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="C51" s="2">
-        <v>7</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="B53" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C53" s="2">
+        <v>7</v>
+      </c>
+      <c r="D53" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C54" s="2">
+        <v>7</v>
+      </c>
+      <c r="D54" s="3">
         <v>99.99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="C52" s="2">
-        <v>8</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="C53" s="2">
-        <v>8</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="C54" s="2">
-        <v>8</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B55" s="2">
         <v>6.5</v>
@@ -1283,166 +1277,166 @@
         <v>8</v>
       </c>
       <c r="D55" s="3">
-        <v>999.99</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>17</v>
+      <c r="A56" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B56" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C56" s="2">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C57" s="2">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C58" s="2">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C59" s="2">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3">
         <v>1</v>
       </c>
-      <c r="D56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3">
-        <v>499.99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>30</v>
+    </row>
+    <row r="60" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B60" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C60" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B61" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C61" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D61" s="3">
-        <v>0.49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B62" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C62" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D62" s="3">
-        <v>0.5</v>
+        <v>999.99</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>18</v>
+      <c r="A63" t="s">
+        <v>17</v>
       </c>
       <c r="B63" s="2">
         <v>4.5</v>
       </c>
       <c r="C63" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="3">
-        <v>4.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>19</v>
+      <c r="A64" t="s">
+        <v>17</v>
       </c>
       <c r="B64" s="2">
         <v>4.5</v>
       </c>
       <c r="C64" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" s="3">
-        <v>5</v>
+        <v>499.99</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>19</v>
+      <c r="A65" t="s">
+        <v>29</v>
       </c>
       <c r="B65" s="2">
         <v>4.5</v>
       </c>
       <c r="C65" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" s="3">
-        <v>49.99</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>20</v>
+      <c r="A66" t="s">
+        <v>29</v>
       </c>
       <c r="B66" s="2">
         <v>4.5</v>
       </c>
       <c r="C66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="3">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>20</v>
+      <c r="A67" t="s">
+        <v>30</v>
       </c>
       <c r="B67" s="2">
         <v>4.5</v>
@@ -1451,12 +1445,12 @@
         <v>2</v>
       </c>
       <c r="D67" s="3">
-        <v>499.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>7</v>
+      <c r="A68" t="s">
+        <v>30</v>
       </c>
       <c r="B68" s="2">
         <v>4.5</v>
@@ -1465,12 +1459,12 @@
         <v>2</v>
       </c>
       <c r="D68" s="3">
-        <v>500</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B69" s="2">
         <v>4.5</v>
@@ -1479,166 +1473,166 @@
         <v>2</v>
       </c>
       <c r="D69" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2</v>
+      </c>
+      <c r="D70" s="3">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+      <c r="D71" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2</v>
+      </c>
+      <c r="D72" s="3">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2</v>
+      </c>
+      <c r="D73" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2</v>
+      </c>
+      <c r="D74" s="3">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2</v>
+      </c>
+      <c r="D75" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2</v>
+      </c>
+      <c r="D76" s="3">
         <v>9999.99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C70" s="2">
-        <v>6</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C71" s="2">
-        <v>6</v>
-      </c>
-      <c r="D71" s="3">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C72" s="2">
-        <v>6</v>
-      </c>
-      <c r="D72" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C73" s="2">
-        <v>6</v>
-      </c>
-      <c r="D73" s="3">
-        <v>999.99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>30</v>
-      </c>
-      <c r="B74" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C74" s="2">
-        <v>7</v>
-      </c>
-      <c r="D74" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>30</v>
-      </c>
-      <c r="B75" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C75" s="2">
-        <v>7</v>
-      </c>
-      <c r="D75" s="3">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C76" s="2">
-        <v>7</v>
-      </c>
-      <c r="D76" s="3">
-        <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B77" s="2">
         <v>4.5</v>
       </c>
       <c r="C77" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" s="3">
-        <v>4.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B78" s="2">
         <v>4.5</v>
       </c>
       <c r="C78" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78" s="3">
-        <v>5</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B79" s="2">
         <v>4.5</v>
       </c>
       <c r="C79" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" s="3">
-        <v>49.99</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B80" s="2">
         <v>4.5</v>
       </c>
       <c r="C80" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" s="3">
-        <v>50</v>
+        <v>999.99</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B81" s="2">
         <v>4.5</v>
@@ -1647,12 +1641,12 @@
         <v>7</v>
       </c>
       <c r="D81" s="3">
-        <v>499.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B82" s="2">
         <v>4.5</v>
@@ -1661,12 +1655,12 @@
         <v>7</v>
       </c>
       <c r="D82" s="3">
-        <v>500</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B83" s="2">
         <v>4.5</v>
@@ -1675,250 +1669,250 @@
         <v>7</v>
       </c>
       <c r="D83" s="3">
-        <v>999.99</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B84" s="2">
         <v>4.5</v>
       </c>
       <c r="C84" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D84" s="3">
-        <v>0</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C85" s="2">
+        <v>7</v>
+      </c>
+      <c r="D85" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C86" s="2">
+        <v>7</v>
+      </c>
+      <c r="D86" s="3">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C87" s="2">
+        <v>7</v>
+      </c>
+      <c r="D87" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C88" s="2">
+        <v>7</v>
+      </c>
+      <c r="D88" s="3">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C89" s="2">
+        <v>7</v>
+      </c>
+      <c r="D89" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C90" s="2">
+        <v>7</v>
+      </c>
+      <c r="D90" s="3">
+        <v>999.99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C85" s="2">
+      <c r="B91" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C91" s="2">
         <v>8</v>
       </c>
-      <c r="D85" s="3">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B86" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C86" s="2">
-        <v>8</v>
-      </c>
-      <c r="D86" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C87" s="2">
-        <v>8</v>
-      </c>
-      <c r="D87" s="3">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C88" s="2">
-        <v>8</v>
-      </c>
-      <c r="D88" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C89" s="2">
-        <v>8</v>
-      </c>
-      <c r="D89" s="3">
-        <v>999.99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B90" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C90" s="2">
-        <v>3</v>
-      </c>
-      <c r="D90" s="3">
+      <c r="D91" s="3">
         <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C91" s="2">
-        <v>3</v>
-      </c>
-      <c r="D91" s="3">
-        <v>499.99</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B92" s="2">
         <v>4.5</v>
       </c>
       <c r="C92" s="2">
+        <v>8</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C93" s="2">
+        <v>8</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C94" s="2">
+        <v>8</v>
+      </c>
+      <c r="D94" s="3">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C95" s="2">
+        <v>8</v>
+      </c>
+      <c r="D95" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C96" s="2">
+        <v>8</v>
+      </c>
+      <c r="D96" s="3">
+        <v>999.99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C97" s="2">
         <v>3</v>
       </c>
-      <c r="D92" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>29</v>
-      </c>
-      <c r="B93" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C93" s="2">
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C98" s="2">
         <v>3</v>
       </c>
-      <c r="D93" s="3">
-        <v>999.99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>30</v>
-      </c>
-      <c r="B94" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C94" s="2">
-        <v>4</v>
-      </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>30</v>
-      </c>
-      <c r="B95" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C95" s="2">
-        <v>4</v>
-      </c>
-      <c r="D95" s="3">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>24</v>
-      </c>
-      <c r="B96" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C96" s="2">
-        <v>4</v>
-      </c>
-      <c r="D96" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C97" s="2">
-        <v>4</v>
-      </c>
-      <c r="D97" s="3">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>25</v>
-      </c>
-      <c r="B98" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C98" s="2">
-        <v>4</v>
-      </c>
       <c r="D98" s="3">
-        <v>5</v>
+        <v>499.99</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B99" s="2">
         <v>4.5</v>
       </c>
       <c r="C99" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" s="3">
-        <v>49.99</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B100" s="2">
         <v>4.5</v>
       </c>
       <c r="C100" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" s="3">
-        <v>50</v>
+        <v>999.99</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B101" s="2">
         <v>4.5</v>
@@ -1927,12 +1921,12 @@
         <v>4</v>
       </c>
       <c r="D101" s="3">
-        <v>499.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B102" s="2">
         <v>4.5</v>
@@ -1941,12 +1935,12 @@
         <v>4</v>
       </c>
       <c r="D102" s="3">
-        <v>500</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B103" s="2">
         <v>4.5</v>
@@ -1954,91 +1948,189 @@
       <c r="C103" s="2">
         <v>4</v>
       </c>
-      <c r="D103" s="6">
-        <v>999.99</v>
+      <c r="D103" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B104" s="2">
         <v>4.5</v>
       </c>
       <c r="C104" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D104" s="3">
-        <v>0</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B105" s="2">
         <v>4.5</v>
       </c>
       <c r="C105" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105" s="3">
-        <v>0.49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B106" s="2">
         <v>4.5</v>
       </c>
       <c r="C106" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D106" s="3">
-        <v>0.5</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B107" s="2">
         <v>4.5</v>
       </c>
       <c r="C107" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D107" s="3">
-        <v>4.99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B108" s="2">
         <v>4.5</v>
       </c>
       <c r="C108" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D108" s="3">
-        <v>5</v>
+        <v>499.99</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C109" s="2">
+        <v>4</v>
+      </c>
+      <c r="D109" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>29</v>
+      </c>
+      <c r="B110" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C110" s="2">
+        <v>4</v>
+      </c>
+      <c r="D110" s="6">
+        <v>999.99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C111" s="2">
+        <v>5</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C112" s="2">
+        <v>5</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C113" s="2">
+        <v>5</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C114" s="2">
+        <v>5</v>
+      </c>
+      <c r="D114" s="3">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>28</v>
       </c>
-      <c r="B109" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C109" s="2">
-        <v>5</v>
-      </c>
-      <c r="D109" s="3">
+      <c r="B115" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C115" s="2">
+        <v>5</v>
+      </c>
+      <c r="D115" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C116" s="2">
+        <v>5</v>
+      </c>
+      <c r="D116" s="3">
         <v>999.99</v>
       </c>
     </row>

--- a/incertitudes.xlsx
+++ b/incertitudes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurentemond/Desktop/Incertitudes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DAD148-2481-0349-9456-E9D5BBEAB683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC415166-671D-BE48-A7DA-3163D55F9ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31800" yWindow="-1200" windowWidth="28800" windowHeight="15760" xr2:uid="{EB94C243-742A-5347-B42B-A80F4502D699}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{EB94C243-742A-5347-B42B-A80F4502D699}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="31">
   <si>
     <t>range</t>
   </si>
@@ -123,10 +123,10 @@
     <t>50M</t>
   </si>
   <si>
-    <t>err_d</t>
-  </si>
-  <si>
-    <t>err_m</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -179,14 +179,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -502,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AE2CD5-EBA2-5945-A732-5CD51756433D}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1407,36 +1406,36 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>29</v>
+      <c r="A65" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B65" s="2">
         <v>4.5</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>29</v>
+      <c r="A66" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B66" s="2">
         <v>4.5</v>
       </c>
       <c r="C66" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>30</v>
+      <c r="A67" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B67" s="2">
         <v>4.5</v>
@@ -1445,12 +1444,12 @@
         <v>2</v>
       </c>
       <c r="D67" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>30</v>
+      <c r="A68" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B68" s="2">
         <v>4.5</v>
@@ -1459,12 +1458,12 @@
         <v>2</v>
       </c>
       <c r="D68" s="3">
-        <v>0.49</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B69" s="2">
         <v>4.5</v>
@@ -1473,12 +1472,12 @@
         <v>2</v>
       </c>
       <c r="D69" s="3">
-        <v>0.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B70" s="2">
         <v>4.5</v>
@@ -1487,12 +1486,12 @@
         <v>2</v>
       </c>
       <c r="D70" s="3">
-        <v>4.99</v>
+        <v>499.99</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B71" s="2">
         <v>4.5</v>
@@ -1501,12 +1500,12 @@
         <v>2</v>
       </c>
       <c r="D71" s="3">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B72" s="2">
         <v>4.5</v>
@@ -1515,340 +1514,340 @@
         <v>2</v>
       </c>
       <c r="D72" s="3">
-        <v>49.99</v>
+        <v>9999.99</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
-        <v>20</v>
+      <c r="A73" t="s">
+        <v>21</v>
       </c>
       <c r="B73" s="2">
         <v>4.5</v>
       </c>
       <c r="C73" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D73" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>20</v>
+      <c r="A74" t="s">
+        <v>21</v>
       </c>
       <c r="B74" s="2">
         <v>4.5</v>
       </c>
       <c r="C74" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D74" s="3">
-        <v>499.99</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>7</v>
+      <c r="A75" t="s">
+        <v>22</v>
       </c>
       <c r="B75" s="2">
         <v>4.5</v>
       </c>
       <c r="C75" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D75" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>7</v>
+      <c r="A76" t="s">
+        <v>22</v>
       </c>
       <c r="B76" s="2">
         <v>4.5</v>
       </c>
       <c r="C76" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D76" s="3">
-        <v>9999.99</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B77" s="2">
         <v>4.5</v>
       </c>
       <c r="C77" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D77" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B78" s="2">
         <v>4.5</v>
       </c>
       <c r="C78" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D78" s="3">
-        <v>499</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B79" s="2">
         <v>4.5</v>
       </c>
       <c r="C79" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D79" s="3">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B80" s="2">
         <v>4.5</v>
       </c>
       <c r="C80" s="2">
+        <v>7</v>
+      </c>
+      <c r="D80" s="3">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C81" s="2">
+        <v>8</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C82" s="2">
+        <v>8</v>
+      </c>
+      <c r="D82" s="3">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="3">
+      <c r="B83" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C83" s="2">
+        <v>8</v>
+      </c>
+      <c r="D83" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C84" s="2">
+        <v>8</v>
+      </c>
+      <c r="D84" s="3">
         <v>999.99</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>30</v>
-      </c>
-      <c r="B81" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C81" s="2">
-        <v>7</v>
-      </c>
-      <c r="D81" s="3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C85" s="2">
+        <v>3</v>
+      </c>
+      <c r="D85" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>30</v>
-      </c>
-      <c r="B82" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C82" s="2">
-        <v>7</v>
-      </c>
-      <c r="D82" s="3">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C83" s="2">
-        <v>7</v>
-      </c>
-      <c r="D83" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C84" s="2">
-        <v>7</v>
-      </c>
-      <c r="D84" s="3">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C85" s="2">
-        <v>7</v>
-      </c>
-      <c r="D85" s="3">
-        <v>5</v>
-      </c>
-    </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>23</v>
+      <c r="A86" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B86" s="2">
         <v>4.5</v>
       </c>
       <c r="C86" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D86" s="3">
-        <v>49.99</v>
+        <v>499.99</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B87" s="2">
         <v>4.5</v>
       </c>
       <c r="C87" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D87" s="3">
-        <v>50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B88" s="2">
         <v>4.5</v>
       </c>
       <c r="C88" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D88" s="3">
-        <v>499.99</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B89" s="2">
         <v>4.5</v>
       </c>
       <c r="C89" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D89" s="3">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B90" s="2">
         <v>4.5</v>
       </c>
       <c r="C90" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D90" s="3">
-        <v>999.99</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B91" s="2">
         <v>4.5</v>
       </c>
       <c r="C91" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B92" s="2">
         <v>4.5</v>
       </c>
       <c r="C92" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D92" s="3">
-        <v>0.49</v>
+        <v>499.99</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
-        <v>18</v>
+      <c r="A93" t="s">
+        <v>27</v>
       </c>
       <c r="B93" s="2">
         <v>4.5</v>
       </c>
       <c r="C93" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D93" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
-        <v>18</v>
+      <c r="A94" t="s">
+        <v>27</v>
       </c>
       <c r="B94" s="2">
         <v>4.5</v>
       </c>
       <c r="C94" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D94" s="3">
         <v>4.99</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
-        <v>6</v>
+      <c r="A95" t="s">
+        <v>28</v>
       </c>
       <c r="B95" s="2">
         <v>4.5</v>
       </c>
       <c r="C95" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D95" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
-        <v>6</v>
+      <c r="A96" t="s">
+        <v>28</v>
       </c>
       <c r="B96" s="2">
         <v>4.5</v>
       </c>
       <c r="C96" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D96" s="3">
         <v>999.99</v>
@@ -1856,13 +1855,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B97" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C97" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" s="3">
         <v>0</v>
@@ -1870,268 +1869,100 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B98" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C98" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" s="3">
-        <v>499.99</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" s="2">
+        <v>5</v>
+      </c>
+      <c r="C99" s="2">
+        <v>2</v>
+      </c>
+      <c r="D99" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" s="2">
+        <v>5</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2</v>
+      </c>
+      <c r="D100" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B99" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C99" s="2">
-        <v>3</v>
-      </c>
-      <c r="D99" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>29</v>
-      </c>
-      <c r="B100" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C100" s="2">
-        <v>3</v>
-      </c>
-      <c r="D100" s="3">
-        <v>999.99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>30</v>
-      </c>
       <c r="B101" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C101" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="A102" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B102" s="2">
+        <v>5</v>
+      </c>
+      <c r="C102" s="2">
+        <v>8</v>
+      </c>
+      <c r="D102" s="3">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B102" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C102" s="2">
-        <v>4</v>
-      </c>
-      <c r="D102" s="3">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>24</v>
-      </c>
       <c r="B103" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C103" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D103" s="3">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>24</v>
+      <c r="A104" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B104" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C104" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D104" s="3">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
         <v>25</v>
-      </c>
-      <c r="B105" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C105" s="2">
-        <v>4</v>
-      </c>
-      <c r="D105" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>25</v>
-      </c>
-      <c r="B106" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C106" s="2">
-        <v>4</v>
-      </c>
-      <c r="D106" s="3">
-        <v>49.99</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>26</v>
-      </c>
-      <c r="B107" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C107" s="2">
-        <v>4</v>
-      </c>
-      <c r="D107" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>26</v>
-      </c>
-      <c r="B108" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C108" s="2">
-        <v>4</v>
-      </c>
-      <c r="D108" s="3">
-        <v>499.99</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>29</v>
-      </c>
-      <c r="B109" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C109" s="2">
-        <v>4</v>
-      </c>
-      <c r="D109" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>29</v>
-      </c>
-      <c r="B110" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C110" s="2">
-        <v>4</v>
-      </c>
-      <c r="D110" s="6">
-        <v>999.99</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>30</v>
-      </c>
-      <c r="B111" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C111" s="2">
-        <v>5</v>
-      </c>
-      <c r="D111" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>30</v>
-      </c>
-      <c r="B112" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C112" s="2">
-        <v>5</v>
-      </c>
-      <c r="D112" s="3">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>27</v>
-      </c>
-      <c r="B113" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C113" s="2">
-        <v>5</v>
-      </c>
-      <c r="D113" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>27</v>
-      </c>
-      <c r="B114" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C114" s="2">
-        <v>5</v>
-      </c>
-      <c r="D114" s="3">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>28</v>
-      </c>
-      <c r="B115" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C115" s="2">
-        <v>5</v>
-      </c>
-      <c r="D115" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>28</v>
-      </c>
-      <c r="B116" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C116" s="2">
-        <v>5</v>
-      </c>
-      <c r="D116" s="3">
-        <v>999.99</v>
       </c>
     </row>
   </sheetData>

--- a/incertitudes.xlsx
+++ b/incertitudes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurentemond/Desktop/Incertitudes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC415166-671D-BE48-A7DA-3163D55F9ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C6D1F0-E339-9841-9BD2-D039F41F7BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{EB94C243-742A-5347-B42B-A80F4502D699}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="18000" activeTab="1" xr2:uid="{EB94C243-742A-5347-B42B-A80F4502D699}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="DC" sheetId="1" r:id="rId1"/>
+    <sheet name="AC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="32">
   <si>
     <t>range</t>
   </si>
@@ -127,6 +128,9 @@
   </si>
   <si>
     <t>25</t>
+  </si>
+  <si>
+    <t>frequence</t>
   </si>
 </sst>
 </file>
@@ -503,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AE2CD5-EBA2-5945-A732-5CD51756433D}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
@@ -1972,4 +1976,41 @@
     <ignoredError sqref="A18:A20 A7 A10:A11 A14:A15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EAC77C-C5E8-6941-878B-59D30CDF957B}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>